--- a/src/elements/element properties.xlsx
+++ b/src/elements/element properties.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/research/pubs/5_lisims/work/notebooks/includes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/.dotfiles/julia/v0.6/Alpine/src/elements/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="atomic number" sheetId="3" r:id="rId1"/>
     <sheet name="radii" sheetId="1" r:id="rId2"/>
     <sheet name="colors" sheetId="2" r:id="rId3"/>
+    <sheet name="masses" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="color_Ac" localSheetId="2">colors!#REF!</definedName>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="252">
   <si>
     <t>H</t>
   </si>
@@ -890,6 +891,9 @@
   </si>
   <si>
     <t>cpk</t>
+  </si>
+  <si>
+    <t>mass</t>
   </si>
 </sst>
 </file>
@@ -3793,7 +3797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5466,4 +5470,897 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.0079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.0026000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6.9409999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9.0122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10.811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>12.0107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>14.0067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>15.9994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>18.9984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20.1797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>22.989699999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>24.305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>26.9815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>28.0855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>30.973800000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>32.064999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>35.453000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>39.948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>39.098300000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>40.078000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>44.9559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>47.866999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>50.941499999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>51.996099999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>54.938000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>55.844999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>58.933199999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>58.693399999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>63.545999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>65.39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>69.722999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>72.64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>74.921599999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>78.959999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>79.903999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>85.467799999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>87.62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>88.905900000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>91.224000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>92.906400000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>95.94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>101.07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>102.9055</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>106.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>107.8682</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>112.411</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>114.818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>118.71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>121.76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>127.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>126.9045</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>131.29300000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>132.90549999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>137.327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>138.90549999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>140.11600000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>140.90770000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>144.24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>150.36000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>151.964</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>157.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>158.92529999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>164.93029999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>167.25899999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>168.9342</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>173.04</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>174.96700000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>178.49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>180.9479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>183.84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>186.20699999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>190.23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>192.21700000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>195.078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>196.9665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>200.59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>204.38329999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>207.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>208.9804</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>232.03809999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>231.0359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>238.02889999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>216</v>
+      </c>
+      <c r="B105">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>218</v>
+      </c>
+      <c r="B106">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>220</v>
+      </c>
+      <c r="B107">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>224</v>
+      </c>
+      <c r="B109">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>